--- a/Code/Results/Cases/Case_5_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_160/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.024857773293208</v>
+        <v>1.069504995555228</v>
       </c>
       <c r="D2">
-        <v>1.040455675369319</v>
+        <v>1.068227240103944</v>
       </c>
       <c r="E2">
-        <v>1.036375405100888</v>
+        <v>1.073200654573546</v>
       </c>
       <c r="F2">
-        <v>1.04537819468874</v>
+        <v>1.081748225534817</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057053766746879</v>
+        <v>1.047873759189906</v>
       </c>
       <c r="J2">
-        <v>1.046319587570581</v>
+        <v>1.074439382078949</v>
       </c>
       <c r="K2">
-        <v>1.051378764753787</v>
+        <v>1.070932987304475</v>
       </c>
       <c r="L2">
-        <v>1.047350207031393</v>
+        <v>1.075893145079647</v>
       </c>
       <c r="M2">
-        <v>1.056239566603236</v>
+        <v>1.084418239958538</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.032779354137562</v>
+        <v>1.071079478604033</v>
       </c>
       <c r="D3">
-        <v>1.0465468775087</v>
+        <v>1.069436886922873</v>
       </c>
       <c r="E3">
-        <v>1.043139336555874</v>
+        <v>1.074584481136351</v>
       </c>
       <c r="F3">
-        <v>1.052320070123002</v>
+        <v>1.083168121359609</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059663747756037</v>
+        <v>1.048271202457672</v>
       </c>
       <c r="J3">
-        <v>1.052414627704279</v>
+        <v>1.075668105253649</v>
       </c>
       <c r="K3">
-        <v>1.056616906433241</v>
+        <v>1.071957593096609</v>
       </c>
       <c r="L3">
-        <v>1.053248464380436</v>
+        <v>1.077092466562213</v>
       </c>
       <c r="M3">
-        <v>1.062324568277603</v>
+        <v>1.0856551839553</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037750028255496</v>
+        <v>1.072096838609928</v>
       </c>
       <c r="D4">
-        <v>1.050370428536233</v>
+        <v>1.070218086496218</v>
       </c>
       <c r="E4">
-        <v>1.047388931008426</v>
+        <v>1.075478763245119</v>
       </c>
       <c r="F4">
-        <v>1.056681676349564</v>
+        <v>1.084085738166866</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061285700324879</v>
+        <v>1.04852603424059</v>
       </c>
       <c r="J4">
-        <v>1.056235011772223</v>
+        <v>1.076461324540364</v>
       </c>
       <c r="K4">
-        <v>1.059896683309555</v>
+        <v>1.072618489562521</v>
       </c>
       <c r="L4">
-        <v>1.056947173955717</v>
+        <v>1.077866825694775</v>
       </c>
       <c r="M4">
-        <v>1.06614094670481</v>
+        <v>1.086453886992458</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039804699646793</v>
+        <v>1.072524201142357</v>
       </c>
       <c r="D5">
-        <v>1.05195114881675</v>
+        <v>1.070546143554303</v>
       </c>
       <c r="E5">
-        <v>1.049146720168492</v>
+        <v>1.075854451335134</v>
       </c>
       <c r="F5">
-        <v>1.05848584397107</v>
+        <v>1.084471235129798</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061952292739677</v>
+        <v>1.048632607461891</v>
       </c>
       <c r="J5">
-        <v>1.057813131376174</v>
+        <v>1.076794357895216</v>
       </c>
       <c r="K5">
-        <v>1.061250621121868</v>
+        <v>1.072895834606119</v>
       </c>
       <c r="L5">
-        <v>1.058475421497717</v>
+        <v>1.078191969401763</v>
       </c>
       <c r="M5">
-        <v>1.067717941309466</v>
+        <v>1.08678926481779</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040147694286319</v>
+        <v>1.072595937746634</v>
       </c>
       <c r="D6">
-        <v>1.052215034698201</v>
+        <v>1.070601204865636</v>
       </c>
       <c r="E6">
-        <v>1.049440221930045</v>
+        <v>1.075917515478835</v>
       </c>
       <c r="F6">
-        <v>1.058787092217497</v>
+        <v>1.084535946167165</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062063340926455</v>
+        <v>1.048650468915691</v>
       </c>
       <c r="J6">
-        <v>1.058076508431163</v>
+        <v>1.07685025026789</v>
       </c>
       <c r="K6">
-        <v>1.061476531933066</v>
+        <v>1.072942373128134</v>
       </c>
       <c r="L6">
-        <v>1.058730497830467</v>
+        <v>1.078246539356466</v>
       </c>
       <c r="M6">
-        <v>1.067981161242165</v>
+        <v>1.0868455531234</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037777617713908</v>
+        <v>1.072102550357702</v>
       </c>
       <c r="D7">
-        <v>1.05039165320221</v>
+        <v>1.070222471415708</v>
       </c>
       <c r="E7">
-        <v>1.047412529470469</v>
+        <v>1.075483784253471</v>
       </c>
       <c r="F7">
-        <v>1.056705897269781</v>
+        <v>1.084090890245865</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061294666465641</v>
+        <v>1.04852746046719</v>
       </c>
       <c r="J7">
-        <v>1.056256206571295</v>
+        <v>1.076465776254161</v>
       </c>
       <c r="K7">
-        <v>1.059914870729529</v>
+        <v>1.072622197402695</v>
       </c>
       <c r="L7">
-        <v>1.056967697426068</v>
+        <v>1.077871171833164</v>
       </c>
       <c r="M7">
-        <v>1.066162124321402</v>
+        <v>1.086458369879835</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027568373049248</v>
+        <v>1.070037401668493</v>
       </c>
       <c r="D8">
-        <v>1.042539584931097</v>
+        <v>1.068636364429712</v>
       </c>
       <c r="E8">
-        <v>1.038688694735595</v>
+        <v>1.073668566370885</v>
       </c>
       <c r="F8">
-        <v>1.047752293292521</v>
+        <v>1.082228328075392</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057950132701896</v>
+        <v>1.048008563015973</v>
       </c>
       <c r="J8">
-        <v>1.048406017147473</v>
+        <v>1.07485502088935</v>
       </c>
       <c r="K8">
-        <v>1.053172586286835</v>
+        <v>1.071279693808313</v>
       </c>
       <c r="L8">
-        <v>1.049368914535996</v>
+        <v>1.076298813183482</v>
       </c>
       <c r="M8">
-        <v>1.058322064475494</v>
+        <v>1.084836622864854</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008283463075605</v>
+        <v>1.066386984248655</v>
       </c>
       <c r="D9">
-        <v>1.027724855260318</v>
+        <v>1.065829538792001</v>
       </c>
       <c r="E9">
-        <v>1.022258063452641</v>
+        <v>1.070460858742751</v>
       </c>
       <c r="F9">
-        <v>1.030890916907187</v>
+        <v>1.078937156792816</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051507716013422</v>
+        <v>1.047076170300368</v>
       </c>
       <c r="J9">
-        <v>1.033547064038235</v>
+        <v>1.072002246235454</v>
       </c>
       <c r="K9">
-        <v>1.040383579122353</v>
+        <v>1.068897783719136</v>
       </c>
       <c r="L9">
-        <v>1.035000053639532</v>
+        <v>1.073514972110979</v>
       </c>
       <c r="M9">
-        <v>1.043501931569886</v>
+        <v>1.081965748771482</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9943866567920014</v>
+        <v>1.063945221332589</v>
       </c>
       <c r="D10">
-        <v>1.017070915735509</v>
+        <v>1.063949981410958</v>
       </c>
       <c r="E10">
-        <v>1.010459209772897</v>
+        <v>1.068315896080534</v>
       </c>
       <c r="F10">
-        <v>1.018784534834075</v>
+        <v>1.076736523396183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04678564787503</v>
+        <v>1.04644230763377</v>
       </c>
       <c r="J10">
-        <v>1.02282477085054</v>
+        <v>1.070090317454965</v>
       </c>
       <c r="K10">
-        <v>1.031138641515966</v>
+        <v>1.067298602830459</v>
       </c>
       <c r="L10">
-        <v>1.024642153376851</v>
+        <v>1.071649872603068</v>
       </c>
       <c r="M10">
-        <v>1.032822714014552</v>
+        <v>1.080042621920126</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9880774843512412</v>
+        <v>1.062885863023801</v>
       </c>
       <c r="D11">
-        <v>1.012241656208079</v>
+        <v>1.063134058149238</v>
       </c>
       <c r="E11">
-        <v>1.005114413364449</v>
+        <v>1.067385474704331</v>
       </c>
       <c r="F11">
-        <v>1.013300964269587</v>
+        <v>1.075781988436041</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044624297005197</v>
+        <v>1.046164895434651</v>
       </c>
       <c r="J11">
-        <v>1.017954805025211</v>
+        <v>1.069259954167601</v>
       </c>
       <c r="K11">
-        <v>1.026936347305388</v>
+        <v>1.066603402380071</v>
       </c>
       <c r="L11">
-        <v>1.019940519586891</v>
+        <v>1.070839997973872</v>
       </c>
       <c r="M11">
-        <v>1.027976328759403</v>
+        <v>1.079207618948811</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9856856548216946</v>
+        <v>1.062492050905421</v>
       </c>
       <c r="D12">
-        <v>1.010412259241085</v>
+        <v>1.062830671409696</v>
       </c>
       <c r="E12">
-        <v>1.003090177946507</v>
+        <v>1.067039620850492</v>
       </c>
       <c r="F12">
-        <v>1.011224261656982</v>
+        <v>1.075427176476295</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043802423477634</v>
+        <v>1.046061406748231</v>
       </c>
       <c r="J12">
-        <v>1.016108425989865</v>
+        <v>1.068951139315854</v>
       </c>
       <c r="K12">
-        <v>1.025342659062314</v>
+        <v>1.066344755399513</v>
       </c>
       <c r="L12">
-        <v>1.018158413528653</v>
+        <v>1.070538825601944</v>
       </c>
       <c r="M12">
-        <v>1.02613953620151</v>
+        <v>1.078897112415614</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9862009761212845</v>
+        <v>1.062576539550146</v>
       </c>
       <c r="D13">
-        <v>1.010806337019988</v>
+        <v>1.062895763325252</v>
       </c>
       <c r="E13">
-        <v>1.003526207192141</v>
+        <v>1.067113819292481</v>
       </c>
       <c r="F13">
-        <v>1.011671588289998</v>
+        <v>1.075503296520107</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043979607055394</v>
+        <v>1.046083625627198</v>
       </c>
       <c r="J13">
-        <v>1.016506234180073</v>
+        <v>1.069017398510498</v>
       </c>
       <c r="K13">
-        <v>1.025686043507686</v>
+        <v>1.066400255097176</v>
       </c>
       <c r="L13">
-        <v>1.018542353019625</v>
+        <v>1.070603444001568</v>
       </c>
       <c r="M13">
-        <v>1.026535249050982</v>
+        <v>1.078963733042488</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9878807889636481</v>
+        <v>1.062853316962211</v>
       </c>
       <c r="D14">
-        <v>1.012091183513321</v>
+        <v>1.063108986602065</v>
       </c>
       <c r="E14">
-        <v>1.004947905852424</v>
+        <v>1.067356891542147</v>
       </c>
       <c r="F14">
-        <v>1.013130139059118</v>
+        <v>1.075752664819922</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044556758897306</v>
+        <v>1.046156350131451</v>
       </c>
       <c r="J14">
-        <v>1.017802967798639</v>
+        <v>1.069234435250793</v>
       </c>
       <c r="K14">
-        <v>1.026805298885816</v>
+        <v>1.066582031115146</v>
       </c>
       <c r="L14">
-        <v>1.019793958521445</v>
+        <v>1.070815110130437</v>
       </c>
       <c r="M14">
-        <v>1.027825266515522</v>
+        <v>1.07918195954871</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9889092288767894</v>
+        <v>1.063023806054483</v>
       </c>
       <c r="D15">
-        <v>1.012878001898193</v>
+        <v>1.063240318359678</v>
       </c>
       <c r="E15">
-        <v>1.005818588036644</v>
+        <v>1.067506622495925</v>
       </c>
       <c r="F15">
-        <v>1.014023402615302</v>
+        <v>1.075906274810389</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044909787499707</v>
+        <v>1.046201098985305</v>
       </c>
       <c r="J15">
-        <v>1.018596857202871</v>
+        <v>1.069368108042911</v>
       </c>
       <c r="K15">
-        <v>1.027490475006907</v>
+        <v>1.066693973665793</v>
       </c>
       <c r="L15">
-        <v>1.020560279762163</v>
+        <v>1.070945478172695</v>
       </c>
       <c r="M15">
-        <v>1.028615130393473</v>
+        <v>1.079316369604361</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9947988597737653</v>
+        <v>1.06401548322899</v>
       </c>
       <c r="D16">
-        <v>1.017386607989122</v>
+        <v>1.064004087530282</v>
       </c>
       <c r="E16">
-        <v>1.010808669084678</v>
+        <v>1.068377609901527</v>
       </c>
       <c r="F16">
-        <v>1.019143079530789</v>
+        <v>1.076799837385705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046926506229863</v>
+        <v>1.046460656261398</v>
       </c>
       <c r="J16">
-        <v>1.023142914822576</v>
+        <v>1.070145372923018</v>
       </c>
       <c r="K16">
-        <v>1.031413103485396</v>
+        <v>1.067344682638507</v>
       </c>
       <c r="L16">
-        <v>1.024949361245405</v>
+        <v>1.071703572786452</v>
       </c>
       <c r="M16">
-        <v>1.03313940397916</v>
+        <v>1.080097989739288</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9984121797441077</v>
+        <v>1.064636977903013</v>
       </c>
       <c r="D17">
-        <v>1.020154814359792</v>
+        <v>1.064482622888016</v>
       </c>
       <c r="E17">
-        <v>1.013873348673335</v>
+        <v>1.068923513174422</v>
       </c>
       <c r="F17">
-        <v>1.02228749725782</v>
+        <v>1.077359899327206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048159293790413</v>
+        <v>1.046622679042363</v>
       </c>
       <c r="J17">
-        <v>1.025931512586299</v>
+        <v>1.070632259905131</v>
       </c>
       <c r="K17">
-        <v>1.033818450232301</v>
+        <v>1.067752115997849</v>
       </c>
       <c r="L17">
-        <v>1.027642423187872</v>
+        <v>1.0721784915687</v>
       </c>
       <c r="M17">
-        <v>1.035915713906736</v>
+        <v>1.080587664851915</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00049195154528</v>
+        <v>1.064999287258952</v>
       </c>
       <c r="D18">
-        <v>1.021748851507377</v>
+        <v>1.064761545915783</v>
       </c>
       <c r="E18">
-        <v>1.015638432844699</v>
+        <v>1.069241771766001</v>
       </c>
       <c r="F18">
-        <v>1.024098555540353</v>
+        <v>1.077686415684521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048867214811737</v>
+        <v>1.046716900192014</v>
       </c>
       <c r="J18">
-        <v>1.02753638641777</v>
+        <v>1.070916013541505</v>
       </c>
       <c r="K18">
-        <v>1.035202442362105</v>
+        <v>1.067989500596425</v>
       </c>
       <c r="L18">
-        <v>1.029192578120321</v>
+        <v>1.072455284718399</v>
       </c>
       <c r="M18">
-        <v>1.037513889396934</v>
+        <v>1.080873064919042</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001196508064734</v>
+        <v>1.065122792106597</v>
       </c>
       <c r="D19">
-        <v>1.022288969502385</v>
+        <v>1.064856617982439</v>
       </c>
       <c r="E19">
-        <v>1.016236564925274</v>
+        <v>1.069350263231813</v>
       </c>
       <c r="F19">
-        <v>1.024712274904492</v>
+        <v>1.077797722710774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049106750486868</v>
+        <v>1.046748979085995</v>
       </c>
       <c r="J19">
-        <v>1.028080025479984</v>
+        <v>1.071012725835527</v>
       </c>
       <c r="K19">
-        <v>1.035671204356789</v>
+        <v>1.068070397953061</v>
       </c>
       <c r="L19">
-        <v>1.029717725459232</v>
+        <v>1.072549627109885</v>
       </c>
       <c r="M19">
-        <v>1.038055321618464</v>
+        <v>1.080970342014645</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9980274123433592</v>
+        <v>1.064570317955611</v>
       </c>
       <c r="D20">
-        <v>1.01985996520383</v>
+        <v>1.064431301158079</v>
       </c>
       <c r="E20">
-        <v>1.013546887813377</v>
+        <v>1.068864959272299</v>
       </c>
       <c r="F20">
-        <v>1.02195253719521</v>
+        <v>1.077299826411671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048028190289333</v>
+        <v>1.046605324927663</v>
       </c>
       <c r="J20">
-        <v>1.025634586281836</v>
+        <v>1.070580046346627</v>
       </c>
       <c r="K20">
-        <v>1.033562364485035</v>
+        <v>1.067708429646278</v>
       </c>
       <c r="L20">
-        <v>1.027355641869302</v>
+        <v>1.072127559976213</v>
       </c>
       <c r="M20">
-        <v>1.035620056880876</v>
+        <v>1.080535150065981</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9873874991275461</v>
+        <v>1.062771821806728</v>
       </c>
       <c r="D21">
-        <v>1.011713838233803</v>
+        <v>1.06304620645238</v>
       </c>
       <c r="E21">
-        <v>1.004530356630289</v>
+        <v>1.067285319895461</v>
       </c>
       <c r="F21">
-        <v>1.012701763884923</v>
+        <v>1.07567923917845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044387341284456</v>
+        <v>1.046134946897569</v>
       </c>
       <c r="J21">
-        <v>1.017422175163364</v>
+        <v>1.069170533917316</v>
       </c>
       <c r="K21">
-        <v>1.02647663550398</v>
+        <v>1.066528514213712</v>
       </c>
       <c r="L21">
-        <v>1.019426405340958</v>
+        <v>1.070752789419867</v>
       </c>
       <c r="M21">
-        <v>1.027446428001734</v>
+        <v>1.079117706981381</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9804154710924452</v>
+        <v>1.061639183684738</v>
       </c>
       <c r="D22">
-        <v>1.006384213185636</v>
+        <v>1.062173507868744</v>
       </c>
       <c r="E22">
-        <v>0.9986338936057749</v>
+        <v>1.066290664878292</v>
       </c>
       <c r="F22">
-        <v>1.006652652910324</v>
+        <v>1.074658831363245</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04198705062764</v>
+        <v>1.04583662289388</v>
       </c>
       <c r="J22">
-        <v>1.012039982081416</v>
+        <v>1.06828210964512</v>
       </c>
       <c r="K22">
-        <v>1.02183024968562</v>
+        <v>1.065784229649726</v>
       </c>
       <c r="L22">
-        <v>1.014232461994903</v>
+        <v>1.069886394517042</v>
       </c>
       <c r="M22">
-        <v>1.022093461506707</v>
+        <v>1.078224479959747</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9841399062727083</v>
+        <v>1.06223979549454</v>
       </c>
       <c r="D23">
-        <v>1.009230415131404</v>
+        <v>1.062636318027658</v>
       </c>
       <c r="E23">
-        <v>1.00178258244999</v>
+        <v>1.066818092562363</v>
       </c>
       <c r="F23">
-        <v>1.009882800939086</v>
+        <v>1.07519991180682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043270591919169</v>
+        <v>1.045995015501888</v>
       </c>
       <c r="J23">
-        <v>1.014915156878972</v>
+        <v>1.06875329197244</v>
       </c>
       <c r="K23">
-        <v>1.024312578706503</v>
+        <v>1.066179020928144</v>
       </c>
       <c r="L23">
-        <v>1.017006813711118</v>
+        <v>1.070345880935568</v>
       </c>
       <c r="M23">
-        <v>1.024952650643625</v>
+        <v>1.07869819082114</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9982013577992502</v>
+        <v>1.064600439328428</v>
       </c>
       <c r="D24">
-        <v>1.019993258307178</v>
+        <v>1.064454491852482</v>
       </c>
       <c r="E24">
-        <v>1.013694470669663</v>
+        <v>1.068891417747321</v>
       </c>
       <c r="F24">
-        <v>1.022103962125406</v>
+        <v>1.077326971265789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0480874646408</v>
+        <v>1.046613167382739</v>
       </c>
       <c r="J24">
-        <v>1.025768821212086</v>
+        <v>1.07060364014585</v>
       </c>
       <c r="K24">
-        <v>1.033678137134603</v>
+        <v>1.067728170445238</v>
       </c>
       <c r="L24">
-        <v>1.027485289621755</v>
+        <v>1.07215057444726</v>
       </c>
       <c r="M24">
-        <v>1.035753716836059</v>
+        <v>1.080558879914635</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013438737767714</v>
+        <v>1.067332103586538</v>
       </c>
       <c r="D25">
-        <v>1.031682219741191</v>
+        <v>1.066556615598235</v>
       </c>
       <c r="E25">
-        <v>1.026643967043675</v>
+        <v>1.071291242741622</v>
       </c>
       <c r="F25">
-        <v>1.035391529035987</v>
+        <v>1.079789122874741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053243844118149</v>
+        <v>1.047319367627269</v>
       </c>
       <c r="J25">
-        <v>1.037522147049833</v>
+        <v>1.072741504936169</v>
       </c>
       <c r="K25">
-        <v>1.043807841455759</v>
+        <v>1.069515522435141</v>
       </c>
       <c r="L25">
-        <v>1.038842284867186</v>
+        <v>1.074236257133368</v>
       </c>
       <c r="M25">
-        <v>1.047464201715844</v>
+        <v>1.082709534673981</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_160/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069504995555228</v>
+        <v>1.024857773293207</v>
       </c>
       <c r="D2">
-        <v>1.068227240103944</v>
+        <v>1.040455675369318</v>
       </c>
       <c r="E2">
-        <v>1.073200654573546</v>
+        <v>1.036375405100887</v>
       </c>
       <c r="F2">
-        <v>1.081748225534817</v>
+        <v>1.045378194688739</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047873759189906</v>
+        <v>1.057053766746879</v>
       </c>
       <c r="J2">
-        <v>1.074439382078949</v>
+        <v>1.04631958757058</v>
       </c>
       <c r="K2">
-        <v>1.070932987304475</v>
+        <v>1.051378764753786</v>
       </c>
       <c r="L2">
-        <v>1.075893145079647</v>
+        <v>1.047350207031393</v>
       </c>
       <c r="M2">
-        <v>1.084418239958538</v>
+        <v>1.056239566603235</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071079478604033</v>
+        <v>1.032779354137561</v>
       </c>
       <c r="D3">
-        <v>1.069436886922873</v>
+        <v>1.046546877508699</v>
       </c>
       <c r="E3">
-        <v>1.074584481136351</v>
+        <v>1.043139336555873</v>
       </c>
       <c r="F3">
-        <v>1.083168121359609</v>
+        <v>1.052320070123002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048271202457672</v>
+        <v>1.059663747756037</v>
       </c>
       <c r="J3">
-        <v>1.075668105253649</v>
+        <v>1.052414627704278</v>
       </c>
       <c r="K3">
-        <v>1.071957593096609</v>
+        <v>1.05661690643324</v>
       </c>
       <c r="L3">
-        <v>1.077092466562213</v>
+        <v>1.053248464380436</v>
       </c>
       <c r="M3">
-        <v>1.0856551839553</v>
+        <v>1.062324568277603</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072096838609928</v>
+        <v>1.037750028255495</v>
       </c>
       <c r="D4">
-        <v>1.070218086496218</v>
+        <v>1.050370428536232</v>
       </c>
       <c r="E4">
-        <v>1.075478763245119</v>
+        <v>1.047388931008425</v>
       </c>
       <c r="F4">
-        <v>1.084085738166866</v>
+        <v>1.056681676349563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04852603424059</v>
+        <v>1.061285700324878</v>
       </c>
       <c r="J4">
-        <v>1.076461324540364</v>
+        <v>1.056235011772223</v>
       </c>
       <c r="K4">
-        <v>1.072618489562521</v>
+        <v>1.059896683309554</v>
       </c>
       <c r="L4">
-        <v>1.077866825694775</v>
+        <v>1.056947173955716</v>
       </c>
       <c r="M4">
-        <v>1.086453886992458</v>
+        <v>1.066140946704809</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072524201142357</v>
+        <v>1.039804699646793</v>
       </c>
       <c r="D5">
-        <v>1.070546143554303</v>
+        <v>1.051951148816749</v>
       </c>
       <c r="E5">
-        <v>1.075854451335134</v>
+        <v>1.049146720168492</v>
       </c>
       <c r="F5">
-        <v>1.084471235129798</v>
+        <v>1.058485843971071</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048632607461891</v>
+        <v>1.061952292739677</v>
       </c>
       <c r="J5">
-        <v>1.076794357895216</v>
+        <v>1.057813131376175</v>
       </c>
       <c r="K5">
-        <v>1.072895834606119</v>
+        <v>1.061250621121868</v>
       </c>
       <c r="L5">
-        <v>1.078191969401763</v>
+        <v>1.058475421497718</v>
       </c>
       <c r="M5">
-        <v>1.08678926481779</v>
+        <v>1.067717941309468</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072595937746634</v>
+        <v>1.04014769428632</v>
       </c>
       <c r="D6">
-        <v>1.070601204865636</v>
+        <v>1.052215034698202</v>
       </c>
       <c r="E6">
-        <v>1.075917515478835</v>
+        <v>1.049440221930045</v>
       </c>
       <c r="F6">
-        <v>1.084535946167165</v>
+        <v>1.058787092217499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048650468915691</v>
+        <v>1.062063340926455</v>
       </c>
       <c r="J6">
-        <v>1.07685025026789</v>
+        <v>1.058076508431164</v>
       </c>
       <c r="K6">
-        <v>1.072942373128134</v>
+        <v>1.061476531933067</v>
       </c>
       <c r="L6">
-        <v>1.078246539356466</v>
+        <v>1.058730497830468</v>
       </c>
       <c r="M6">
-        <v>1.0868455531234</v>
+        <v>1.067981161242166</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072102550357702</v>
+        <v>1.037777617713907</v>
       </c>
       <c r="D7">
-        <v>1.070222471415708</v>
+        <v>1.050391653202209</v>
       </c>
       <c r="E7">
-        <v>1.075483784253471</v>
+        <v>1.047412529470468</v>
       </c>
       <c r="F7">
-        <v>1.084090890245865</v>
+        <v>1.05670589726978</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04852746046719</v>
+        <v>1.06129466646564</v>
       </c>
       <c r="J7">
-        <v>1.076465776254161</v>
+        <v>1.056256206571294</v>
       </c>
       <c r="K7">
-        <v>1.072622197402695</v>
+        <v>1.059914870729528</v>
       </c>
       <c r="L7">
-        <v>1.077871171833164</v>
+        <v>1.056967697426068</v>
       </c>
       <c r="M7">
-        <v>1.086458369879835</v>
+        <v>1.066162124321401</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070037401668493</v>
+        <v>1.027568373049247</v>
       </c>
       <c r="D8">
-        <v>1.068636364429712</v>
+        <v>1.042539584931097</v>
       </c>
       <c r="E8">
-        <v>1.073668566370885</v>
+        <v>1.038688694735594</v>
       </c>
       <c r="F8">
-        <v>1.082228328075392</v>
+        <v>1.04775229329252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048008563015973</v>
+        <v>1.057950132701895</v>
       </c>
       <c r="J8">
-        <v>1.07485502088935</v>
+        <v>1.048406017147473</v>
       </c>
       <c r="K8">
-        <v>1.071279693808313</v>
+        <v>1.053172586286834</v>
       </c>
       <c r="L8">
-        <v>1.076298813183482</v>
+        <v>1.049368914535995</v>
       </c>
       <c r="M8">
-        <v>1.084836622864854</v>
+        <v>1.058322064475492</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066386984248655</v>
+        <v>1.008283463075601</v>
       </c>
       <c r="D9">
-        <v>1.065829538792001</v>
+        <v>1.027724855260314</v>
       </c>
       <c r="E9">
-        <v>1.070460858742751</v>
+        <v>1.022258063452637</v>
       </c>
       <c r="F9">
-        <v>1.078937156792816</v>
+        <v>1.030890916907184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047076170300368</v>
+        <v>1.05150771601342</v>
       </c>
       <c r="J9">
-        <v>1.072002246235454</v>
+        <v>1.033547064038232</v>
       </c>
       <c r="K9">
-        <v>1.068897783719136</v>
+        <v>1.040383579122349</v>
       </c>
       <c r="L9">
-        <v>1.073514972110979</v>
+        <v>1.035000053639529</v>
       </c>
       <c r="M9">
-        <v>1.081965748771482</v>
+        <v>1.043501931569883</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063945221332589</v>
+        <v>0.9943866567920053</v>
       </c>
       <c r="D10">
-        <v>1.063949981410958</v>
+        <v>1.017070915735512</v>
       </c>
       <c r="E10">
-        <v>1.068315896080534</v>
+        <v>1.0104592097729</v>
       </c>
       <c r="F10">
-        <v>1.076736523396183</v>
+        <v>1.018784534834079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04644230763377</v>
+        <v>1.046785647875032</v>
       </c>
       <c r="J10">
-        <v>1.070090317454965</v>
+        <v>1.022824770850543</v>
       </c>
       <c r="K10">
-        <v>1.067298602830459</v>
+        <v>1.031138641515969</v>
       </c>
       <c r="L10">
-        <v>1.071649872603068</v>
+        <v>1.024642153376854</v>
       </c>
       <c r="M10">
-        <v>1.080042621920126</v>
+        <v>1.032822714014556</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062885863023801</v>
+        <v>0.9880774843512429</v>
       </c>
       <c r="D11">
-        <v>1.063134058149238</v>
+        <v>1.01224165620808</v>
       </c>
       <c r="E11">
-        <v>1.067385474704331</v>
+        <v>1.00511441336445</v>
       </c>
       <c r="F11">
-        <v>1.075781988436041</v>
+        <v>1.013300964269588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046164895434651</v>
+        <v>1.044624297005198</v>
       </c>
       <c r="J11">
-        <v>1.069259954167601</v>
+        <v>1.017954805025213</v>
       </c>
       <c r="K11">
-        <v>1.066603402380071</v>
+        <v>1.026936347305389</v>
       </c>
       <c r="L11">
-        <v>1.070839997973872</v>
+        <v>1.019940519586893</v>
       </c>
       <c r="M11">
-        <v>1.079207618948811</v>
+        <v>1.027976328759405</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.062492050905421</v>
+        <v>0.9856856548216949</v>
       </c>
       <c r="D12">
-        <v>1.062830671409696</v>
+        <v>1.010412259241085</v>
       </c>
       <c r="E12">
-        <v>1.067039620850492</v>
+        <v>1.003090177946507</v>
       </c>
       <c r="F12">
-        <v>1.075427176476295</v>
+        <v>1.011224261656982</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046061406748231</v>
+        <v>1.043802423477634</v>
       </c>
       <c r="J12">
-        <v>1.068951139315854</v>
+        <v>1.016108425989866</v>
       </c>
       <c r="K12">
-        <v>1.066344755399513</v>
+        <v>1.025342659062314</v>
       </c>
       <c r="L12">
-        <v>1.070538825601944</v>
+        <v>1.018158413528653</v>
       </c>
       <c r="M12">
-        <v>1.078897112415614</v>
+        <v>1.02613953620151</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062576539550146</v>
+        <v>0.9862009761212828</v>
       </c>
       <c r="D13">
-        <v>1.062895763325252</v>
+        <v>1.010806337019987</v>
       </c>
       <c r="E13">
-        <v>1.067113819292481</v>
+        <v>1.003526207192139</v>
       </c>
       <c r="F13">
-        <v>1.075503296520107</v>
+        <v>1.011671588289996</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046083625627198</v>
+        <v>1.043979607055393</v>
       </c>
       <c r="J13">
-        <v>1.069017398510498</v>
+        <v>1.016506234180071</v>
       </c>
       <c r="K13">
-        <v>1.066400255097176</v>
+        <v>1.025686043507684</v>
       </c>
       <c r="L13">
-        <v>1.070603444001568</v>
+        <v>1.018542353019623</v>
       </c>
       <c r="M13">
-        <v>1.078963733042488</v>
+        <v>1.02653524905098</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062853316962211</v>
+        <v>0.9878807889636472</v>
       </c>
       <c r="D14">
-        <v>1.063108986602065</v>
+        <v>1.01209118351332</v>
       </c>
       <c r="E14">
-        <v>1.067356891542147</v>
+        <v>1.004947905852423</v>
       </c>
       <c r="F14">
-        <v>1.075752664819922</v>
+        <v>1.013130139059117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046156350131451</v>
+        <v>1.044556758897306</v>
       </c>
       <c r="J14">
-        <v>1.069234435250793</v>
+        <v>1.017802967798638</v>
       </c>
       <c r="K14">
-        <v>1.066582031115146</v>
+        <v>1.026805298885815</v>
       </c>
       <c r="L14">
-        <v>1.070815110130437</v>
+        <v>1.019793958521444</v>
       </c>
       <c r="M14">
-        <v>1.07918195954871</v>
+        <v>1.027825266515521</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063023806054483</v>
+        <v>0.9889092288767912</v>
       </c>
       <c r="D15">
-        <v>1.063240318359678</v>
+        <v>1.012878001898195</v>
       </c>
       <c r="E15">
-        <v>1.067506622495925</v>
+        <v>1.005818588036645</v>
       </c>
       <c r="F15">
-        <v>1.075906274810389</v>
+        <v>1.014023402615304</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046201098985305</v>
+        <v>1.044909787499708</v>
       </c>
       <c r="J15">
-        <v>1.069368108042911</v>
+        <v>1.018596857202873</v>
       </c>
       <c r="K15">
-        <v>1.066693973665793</v>
+        <v>1.027490475006909</v>
       </c>
       <c r="L15">
-        <v>1.070945478172695</v>
+        <v>1.020560279762164</v>
       </c>
       <c r="M15">
-        <v>1.079316369604361</v>
+        <v>1.028615130393474</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06401548322899</v>
+        <v>0.9947988597737678</v>
       </c>
       <c r="D16">
-        <v>1.064004087530282</v>
+        <v>1.017386607989124</v>
       </c>
       <c r="E16">
-        <v>1.068377609901527</v>
+        <v>1.010808669084679</v>
       </c>
       <c r="F16">
-        <v>1.076799837385705</v>
+        <v>1.019143079530791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046460656261398</v>
+        <v>1.046926506229864</v>
       </c>
       <c r="J16">
-        <v>1.070145372923018</v>
+        <v>1.023142914822578</v>
       </c>
       <c r="K16">
-        <v>1.067344682638507</v>
+        <v>1.031413103485398</v>
       </c>
       <c r="L16">
-        <v>1.071703572786452</v>
+        <v>1.024949361245408</v>
       </c>
       <c r="M16">
-        <v>1.080097989739288</v>
+        <v>1.033139403979161</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064636977903013</v>
+        <v>0.9984121797441053</v>
       </c>
       <c r="D17">
-        <v>1.064482622888016</v>
+        <v>1.02015481435979</v>
       </c>
       <c r="E17">
-        <v>1.068923513174422</v>
+        <v>1.013873348673333</v>
       </c>
       <c r="F17">
-        <v>1.077359899327206</v>
+        <v>1.022287497257818</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046622679042363</v>
+        <v>1.048159293790411</v>
       </c>
       <c r="J17">
-        <v>1.070632259905131</v>
+        <v>1.025931512586297</v>
       </c>
       <c r="K17">
-        <v>1.067752115997849</v>
+        <v>1.033818450232299</v>
       </c>
       <c r="L17">
-        <v>1.0721784915687</v>
+        <v>1.02764242318787</v>
       </c>
       <c r="M17">
-        <v>1.080587664851915</v>
+        <v>1.035915713906734</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064999287258952</v>
+        <v>1.00049195154528</v>
       </c>
       <c r="D18">
-        <v>1.064761545915783</v>
+        <v>1.021748851507377</v>
       </c>
       <c r="E18">
-        <v>1.069241771766001</v>
+        <v>1.015638432844699</v>
       </c>
       <c r="F18">
-        <v>1.077686415684521</v>
+        <v>1.024098555540353</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046716900192014</v>
+        <v>1.048867214811737</v>
       </c>
       <c r="J18">
-        <v>1.070916013541505</v>
+        <v>1.02753638641777</v>
       </c>
       <c r="K18">
-        <v>1.067989500596425</v>
+        <v>1.035202442362105</v>
       </c>
       <c r="L18">
-        <v>1.072455284718399</v>
+        <v>1.029192578120321</v>
       </c>
       <c r="M18">
-        <v>1.080873064919042</v>
+        <v>1.037513889396934</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065122792106597</v>
+        <v>1.001196508064734</v>
       </c>
       <c r="D19">
-        <v>1.064856617982439</v>
+        <v>1.022288969502384</v>
       </c>
       <c r="E19">
-        <v>1.069350263231813</v>
+        <v>1.016236564925274</v>
       </c>
       <c r="F19">
-        <v>1.077797722710774</v>
+        <v>1.024712274904491</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046748979085995</v>
+        <v>1.049106750486867</v>
       </c>
       <c r="J19">
-        <v>1.071012725835527</v>
+        <v>1.028080025479983</v>
       </c>
       <c r="K19">
-        <v>1.068070397953061</v>
+        <v>1.035671204356788</v>
       </c>
       <c r="L19">
-        <v>1.072549627109885</v>
+        <v>1.029717725459231</v>
       </c>
       <c r="M19">
-        <v>1.080970342014645</v>
+        <v>1.038055321618463</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064570317955611</v>
+        <v>0.9980274123433579</v>
       </c>
       <c r="D20">
-        <v>1.064431301158079</v>
+        <v>1.019859965203829</v>
       </c>
       <c r="E20">
-        <v>1.068864959272299</v>
+        <v>1.013546887813375</v>
       </c>
       <c r="F20">
-        <v>1.077299826411671</v>
+        <v>1.021952537195209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046605324927663</v>
+        <v>1.048028190289332</v>
       </c>
       <c r="J20">
-        <v>1.070580046346627</v>
+        <v>1.025634586281835</v>
       </c>
       <c r="K20">
-        <v>1.067708429646278</v>
+        <v>1.033562364485034</v>
       </c>
       <c r="L20">
-        <v>1.072127559976213</v>
+        <v>1.0273556418693</v>
       </c>
       <c r="M20">
-        <v>1.080535150065981</v>
+        <v>1.035620056880875</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062771821806728</v>
+        <v>0.9873874991275451</v>
       </c>
       <c r="D21">
-        <v>1.06304620645238</v>
+        <v>1.011713838233802</v>
       </c>
       <c r="E21">
-        <v>1.067285319895461</v>
+        <v>1.004530356630288</v>
       </c>
       <c r="F21">
-        <v>1.07567923917845</v>
+        <v>1.012701763884923</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046134946897569</v>
+        <v>1.044387341284455</v>
       </c>
       <c r="J21">
-        <v>1.069170533917316</v>
+        <v>1.017422175163363</v>
       </c>
       <c r="K21">
-        <v>1.066528514213712</v>
+        <v>1.026476635503979</v>
       </c>
       <c r="L21">
-        <v>1.070752789419867</v>
+        <v>1.019426405340958</v>
       </c>
       <c r="M21">
-        <v>1.079117706981381</v>
+        <v>1.027446428001733</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.061639183684738</v>
+        <v>0.9804154710924459</v>
       </c>
       <c r="D22">
-        <v>1.062173507868744</v>
+        <v>1.006384213185636</v>
       </c>
       <c r="E22">
-        <v>1.066290664878292</v>
+        <v>0.9986338936057751</v>
       </c>
       <c r="F22">
-        <v>1.074658831363245</v>
+        <v>1.006652652910325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04583662289388</v>
+        <v>1.04198705062764</v>
       </c>
       <c r="J22">
-        <v>1.06828210964512</v>
+        <v>1.012039982081417</v>
       </c>
       <c r="K22">
-        <v>1.065784229649726</v>
+        <v>1.021830249685621</v>
       </c>
       <c r="L22">
-        <v>1.069886394517042</v>
+        <v>1.014232461994904</v>
       </c>
       <c r="M22">
-        <v>1.078224479959747</v>
+        <v>1.022093461506707</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06223979549454</v>
+        <v>0.9841399062727073</v>
       </c>
       <c r="D23">
-        <v>1.062636318027658</v>
+        <v>1.009230415131404</v>
       </c>
       <c r="E23">
-        <v>1.066818092562363</v>
+        <v>1.001782582449989</v>
       </c>
       <c r="F23">
-        <v>1.07519991180682</v>
+        <v>1.009882800939085</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045995015501888</v>
+        <v>1.043270591919169</v>
       </c>
       <c r="J23">
-        <v>1.06875329197244</v>
+        <v>1.01491515687897</v>
       </c>
       <c r="K23">
-        <v>1.066179020928144</v>
+        <v>1.024312578706502</v>
       </c>
       <c r="L23">
-        <v>1.070345880935568</v>
+        <v>1.017006813711117</v>
       </c>
       <c r="M23">
-        <v>1.07869819082114</v>
+        <v>1.024952650643624</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064600439328428</v>
+        <v>0.9982013577992512</v>
       </c>
       <c r="D24">
-        <v>1.064454491852482</v>
+        <v>1.019993258307179</v>
       </c>
       <c r="E24">
-        <v>1.068891417747321</v>
+        <v>1.013694470669665</v>
       </c>
       <c r="F24">
-        <v>1.077326971265789</v>
+        <v>1.022103962125407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046613167382739</v>
+        <v>1.0480874646408</v>
       </c>
       <c r="J24">
-        <v>1.07060364014585</v>
+        <v>1.025768821212087</v>
       </c>
       <c r="K24">
-        <v>1.067728170445238</v>
+        <v>1.033678137134604</v>
       </c>
       <c r="L24">
-        <v>1.07215057444726</v>
+        <v>1.027485289621757</v>
       </c>
       <c r="M24">
-        <v>1.080558879914635</v>
+        <v>1.03575371683606</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067332103586538</v>
+        <v>1.013438737767716</v>
       </c>
       <c r="D25">
-        <v>1.066556615598235</v>
+        <v>1.031682219741193</v>
       </c>
       <c r="E25">
-        <v>1.071291242741622</v>
+        <v>1.026643967043677</v>
       </c>
       <c r="F25">
-        <v>1.079789122874741</v>
+        <v>1.035391529035989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047319367627269</v>
+        <v>1.05324384411815</v>
       </c>
       <c r="J25">
-        <v>1.072741504936169</v>
+        <v>1.037522147049834</v>
       </c>
       <c r="K25">
-        <v>1.069515522435141</v>
+        <v>1.043807841455761</v>
       </c>
       <c r="L25">
-        <v>1.074236257133368</v>
+        <v>1.038842284867188</v>
       </c>
       <c r="M25">
-        <v>1.082709534673981</v>
+        <v>1.047464201715845</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
